--- a/Densitet.xlsx
+++ b/Densitet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>#</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Luft</t>
   </si>
   <si>
-    <t>Vatten/is</t>
-  </si>
-  <si>
     <t>wiki sv</t>
   </si>
   <si>
@@ -128,6 +125,25 @@
   </si>
   <si>
     <t>C3H6</t>
+  </si>
+  <si>
+    <t>NH3</t>
+  </si>
+  <si>
+    <t>Ammoniak</t>
+  </si>
+  <si>
+    <t>Molmassa 
+(g/mol)</t>
+  </si>
+  <si>
+    <t>Vatten(is)</t>
+  </si>
+  <si>
+    <t>21% O2 + 79%N2</t>
+  </si>
+  <si>
+    <t>http://renewableenergy.wikia.com/wiki/Molecular_weight_of_dry_air</t>
   </si>
 </sst>
 </file>
@@ -135,8 +151,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0E+00"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -229,13 +245,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -567,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,68 +594,72 @@
     <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4">
         <v>100000</v>
       </c>
-      <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" s="2"/>
-      <c r="K2" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -647,28 +667,31 @@
         <v>4</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="6">
+        <v>29</v>
+      </c>
+      <c r="D3" s="9">
+        <v>28.96</v>
+      </c>
+      <c r="E3" s="6">
         <v>1.2040999999999999</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="6">
         <v>1.2922</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8">
-        <f t="shared" ref="G3:G8" si="0">(273.15+20)/273.15</f>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8">
+        <f t="shared" ref="H3:H13" si="0">(273.15+20)/273.15</f>
         <v>1.0732198425773385</v>
       </c>
-      <c r="H3" s="7">
-        <f>D3*G3-E3</f>
+      <c r="I3" s="7">
+        <f>E3*H3-F3</f>
         <v>6.4012447373196224E-5</v>
       </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -676,203 +699,254 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="6">
+        <f>2*14.0067</f>
+        <v>28.013400000000001</v>
+      </c>
+      <c r="E4" s="6">
         <v>1.1653</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="6">
         <v>1.2505999999999999</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8">
+      <c r="G4" s="7"/>
+      <c r="H4" s="8">
         <f>(273.15+20)/273.15</f>
         <v>1.0732198425773385</v>
       </c>
-      <c r="H4" s="7">
-        <f t="shared" ref="H4:H8" si="1">D4*G4-E4</f>
+      <c r="I4" s="7">
+        <f t="shared" ref="I4:I8" si="1">E4*H4-F4</f>
         <v>2.3082555372644364E-5</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" t="s">
         <v>9</v>
       </c>
-      <c r="M4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="6">
+        <f>2*15.999</f>
+        <v>31.998000000000001</v>
+      </c>
+      <c r="E5" s="6">
         <v>1.3314999999999999</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <v>1.429</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8">
+      <c r="G5" s="7"/>
+      <c r="H5" s="8">
         <f t="shared" si="0"/>
         <v>1.0732198425773385</v>
       </c>
-      <c r="H5" s="7">
+      <c r="I5" s="7">
         <f t="shared" si="1"/>
         <v>-7.7796082740277939E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="6">
+        <v>18.015280000000001</v>
+      </c>
+      <c r="E6" s="6">
         <v>998</v>
       </c>
-      <c r="E6" s="6">
-        <v>917</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7"/>
-      <c r="M6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F6" s="6">
+        <v>-917</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="7"/>
+      <c r="N6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1.98</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
+        <v>1.9770000000000001</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8">
         <f t="shared" si="0"/>
         <v>1.0732198425773385</v>
       </c>
-      <c r="H7" s="7">
-        <f t="shared" si="1"/>
-        <v>2.1249752883031303</v>
-      </c>
-      <c r="M7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I7" s="7">
+        <f>E7*H7-F7</f>
+        <v>2.1217556287753983</v>
+      </c>
+      <c r="N7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="6">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
         <v>1.0079</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8">
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8">
         <f t="shared" si="0"/>
         <v>1.0732198425773385</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I8" s="7">
         <f t="shared" si="1"/>
         <v>1.0816982793336996</v>
       </c>
-      <c r="M8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
         <v>0.42399999999999999</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0732198425773385</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" ref="I9:I13" si="2">E9*H9-F9</f>
+        <v>0.45504521325279151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="6">
+        <v>30</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
         <v>0.58199999999999996</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0732198425773385</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="2"/>
+        <v>0.62461394838001094</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="6">
+        <v>33</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
         <v>0.51400000000000001</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0732198425773385</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="2"/>
+        <v>0.551634999084752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="6">
+        <v>17.030999999999999</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.73</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0732198425773385</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="2"/>
+        <v>1.3450485081457075E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -880,11 +954,18 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0732198425773385</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -892,14 +973,26 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <f>0.21*D5+0.79*D4</f>
+        <v>28.850166000000002</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1"/>
-    <hyperlink ref="L4" r:id="rId2"/>
+    <hyperlink ref="L4" r:id="rId1"/>
+    <hyperlink ref="M4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -911,7 +1004,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -933,19 +1026,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>